--- a/data/trans_dic/P43E_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P43E_R-Habitat-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7942401339887206</v>
+        <v>0.7883710079907817</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8443647447792964</v>
+        <v>0.844868050717601</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8315578263059555</v>
+        <v>0.8284083252119236</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8701578822946479</v>
+        <v>0.8679731780532098</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.913376149502993</v>
+        <v>0.9167459440952825</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8970707181062736</v>
+        <v>0.8966444648275498</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7165200531016861</v>
+        <v>0.714993781642225</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8160191097993763</v>
+        <v>0.8188663009214041</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7552211931941598</v>
+        <v>0.7544086975109024</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7865961937340602</v>
+        <v>0.7863597378216253</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8746094657127488</v>
+        <v>0.8739312726811992</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8192062041564127</v>
+        <v>0.8209675628742926</v>
       </c>
     </row>
     <row r="10">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7065606659887956</v>
+        <v>0.7056971498759418</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.784637532376217</v>
+        <v>0.7864407289424586</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6453191651882481</v>
+        <v>0.6449375453724651</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7877004120248045</v>
+        <v>0.7866716286025475</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8540907803491361</v>
+        <v>0.8553417812257632</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7314965279722709</v>
+        <v>0.7317025972301731</v>
       </c>
     </row>
     <row r="13">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7317108767012864</v>
+        <v>0.726689823039075</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7783549883159947</v>
+        <v>0.776398348845011</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6762371330542378</v>
+        <v>0.6789339335603061</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7989510406632747</v>
+        <v>0.7959403702035674</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8424957707064948</v>
+        <v>0.8404231145439358</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.742870182840219</v>
+        <v>0.7473768799668074</v>
       </c>
     </row>
     <row r="16">
@@ -810,7 +810,7 @@
         <v>0.8360761465892808</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7544571578083872</v>
+        <v>0.7544571578083874</v>
       </c>
     </row>
     <row r="17">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7506596909798154</v>
+        <v>0.7513167033043509</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8182760564829431</v>
+        <v>0.8193256852691897</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.736110788253831</v>
+        <v>0.7363259154922155</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.789450104007539</v>
+        <v>0.7874592081201731</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.851420511165801</v>
+        <v>0.8525095483326741</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7718590144297249</v>
+        <v>0.7718090527775079</v>
       </c>
     </row>
     <row r="19">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>339865</v>
+        <v>337353</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>294507</v>
+        <v>294682</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>237357</v>
+        <v>236458</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>372351</v>
+        <v>371416</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>318577</v>
+        <v>319753</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>256057</v>
+        <v>255936</v>
       </c>
     </row>
     <row r="8">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>468154</v>
+        <v>467157</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>515162</v>
+        <v>516959</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>319094</v>
+        <v>318750</v>
       </c>
     </row>
     <row r="11">
@@ -1068,13 +1068,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>513940</v>
+        <v>513785</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>552151</v>
+        <v>551722</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>346129</v>
+        <v>346873</v>
       </c>
     </row>
     <row r="12">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>370393</v>
+        <v>369941</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>387897</v>
+        <v>388789</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>238486</v>
+        <v>238345</v>
       </c>
     </row>
     <row r="15">
@@ -1140,13 +1140,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>412928</v>
+        <v>412389</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>422233</v>
+        <v>422851</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>270334</v>
+        <v>270410</v>
       </c>
     </row>
     <row r="16">
@@ -1195,13 +1195,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>470871</v>
+        <v>467640</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>528665</v>
+        <v>527336</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>359755</v>
+        <v>361190</v>
       </c>
     </row>
     <row r="19">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>514142</v>
+        <v>512204</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>572230</v>
+        <v>570822</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>395204</v>
+        <v>397602</v>
       </c>
     </row>
     <row r="20">
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1688252</v>
+        <v>1689730</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1762300</v>
+        <v>1764560</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1184780</v>
+        <v>1185126</v>
       </c>
     </row>
     <row r="23">
@@ -1284,13 +1284,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1775493</v>
+        <v>1771015</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1833682</v>
+        <v>1836028</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1242317</v>
+        <v>1242237</v>
       </c>
     </row>
     <row r="24">
